--- a/9/cfrp4=3/model=1/9_cfrp4=3_SS.xlsx
+++ b/9/cfrp4=3/model=1/9_cfrp4=3_SS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/GitHub/ansys-management-3dPrinter/9/cfrp4=3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/GitHub/ansys-management-3dPrinter/9/cfrp4=3/model=1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6763F619-45E0-F04C-B68B-F02174E5FD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6105E224-3FB5-5649-97B5-D8760FD9B7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,18 @@
     <sheet name="9_cfr3_hzu20" sheetId="6" r:id="rId6"/>
     <sheet name="9_cfr3_hzu5" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -9543,8 +9554,8 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9740900" cy="6007100"/>
     <xdr:graphicFrame macro="">
@@ -10247,7 +10258,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
